--- a/biology/Microbiologie/Naegleria_aerobia/Naegleria_aerobia.xlsx
+++ b/biology/Microbiologie/Naegleria_aerobia/Naegleria_aerobia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Naegleria aerobia est une espèce d'amibes de la famille des Vahlkampfiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Naegleria aerobia a été décrite en 1970 par les microbiologistes indiens Baij Nath Singh (d) et Santosh R. Das (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Naegleria aerobia a été décrite en 1970 par les microbiologistes indiens Baij Nath Singh (d) et Santosh R. Das (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description de 1970, les auteurs indiquent que, dans les conditions normales, le diamètre de Naegleria aerobia mesure entre 10 et 15 µm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description de 1970, les auteurs indiquent que, dans les conditions normales, le diamètre de Naegleria aerobia mesure entre 10 et 15 µm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du grec ancien ἀήρ, aêr, « air », et βίος, bíos, « vie », fait référence à sa existence aérobie contrairement aux autres amibes parasites[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du grec ancien ἀήρ, aêr, « air », et βίος, bíos, « vie », fait référence à sa existence aérobie contrairement aux autres amibes parasites.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) B. N. Singh et S. R. Das, « Studies on pathogenic and non-pathogenic small free-living amoebae and the bearing of nuclear division on the classification of the order amoebida », Philosophical Transactions of the Royal Society B: Biological Sciences, Royal Society, vol. 259, no 832,‎ 1er octobre 1970, p. 435-476 (ISSN 0962-8436 et 1471-2970, OCLC 01403239, PMID 4399072, DOI 10.1098/RSTB.1970.0063, JSTOR 2416965)</t>
         </is>
